--- a/notebooks/FBN1/input/FBN1_SSS_individuals.xlsx
+++ b/notebooks/FBN1/input/FBN1_SSS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/FBN1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FBN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65670320-86BC-1145-AF5B-869C4B53CA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467E9E8B-262F-2940-B10B-029E47133418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="9160" windowWidth="30380" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="8540" windowWidth="33420" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>PMID</t>
   </si>
@@ -232,12 +232,6 @@
     <t>HP:0034671</t>
   </si>
   <si>
-    <t>Thoracic aortic aneurysm</t>
-  </si>
-  <si>
-    <t>HP:0012727</t>
-  </si>
-  <si>
     <t>Gastroesophageal reflux</t>
   </si>
   <si>
@@ -278,6 +272,30 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Aortic aneurysm</t>
+  </si>
+  <si>
+    <t>HP:0004942</t>
+  </si>
+  <si>
+    <t>Cataract</t>
+  </si>
+  <si>
+    <t>HP:0000518</t>
+  </si>
+  <si>
+    <t>P62Y</t>
+  </si>
+  <si>
+    <t>P47Y</t>
+  </si>
+  <si>
+    <t>Short stature</t>
+  </si>
+  <si>
+    <t>HP:0004322</t>
   </si>
 </sst>
 </file>
@@ -351,12 +369,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,115 +682,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="4" max="9" width="8.83203125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -829,7 +856,7 @@
         <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="U2" t="s">
         <v>36</v>
@@ -841,31 +868,37 @@
         <v>38</v>
       </c>
       <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" t="s">
-        <v>75</v>
-      </c>
       <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>67</v>
       </c>
-      <c r="AE2" t="s">
-        <v>73</v>
+      <c r="AG2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -891,22 +924,22 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
         <v>33</v>
@@ -933,28 +966,34 @@
         <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>74</v>
       </c>
       <c r="AA3" t="s">
         <v>59</v>
       </c>
       <c r="AB3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE3" t="s">
         <v>58</v>
       </c>
+      <c r="AF3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -980,19 +1019,19 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
@@ -1019,19 +1058,19 @@
         <v>59</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
       </c>
       <c r="AA4" t="s">
         <v>59</v>
       </c>
       <c r="AB4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD4" t="s">
         <v>58</v>
@@ -1039,8 +1078,14 @@
       <c r="AE4" t="s">
         <v>58</v>
       </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1066,22 +1111,22 @@
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
         <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
         <v>33</v>
@@ -1108,19 +1153,19 @@
         <v>59</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>59</v>
+        <v>88</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
       </c>
       <c r="AA5" t="s">
         <v>59</v>
       </c>
       <c r="AB5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD5" t="s">
         <v>58</v>
@@ -1128,8 +1173,14 @@
       <c r="AE5" t="s">
         <v>58</v>
       </c>
+      <c r="AF5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1155,19 +1206,19 @@
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N6" t="s">
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s">
         <v>33</v>
@@ -1194,19 +1245,19 @@
         <v>59</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
       </c>
       <c r="AA6" t="s">
         <v>59</v>
       </c>
       <c r="AB6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD6" t="s">
         <v>58</v>
@@ -1214,8 +1265,14 @@
       <c r="AE6" t="s">
         <v>58</v>
       </c>
+      <c r="AF6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1241,22 +1298,22 @@
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
         <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
         <v>33</v>
@@ -1283,10 +1340,10 @@
         <v>59</v>
       </c>
       <c r="X7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>59</v>
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>74</v>
       </c>
       <c r="AA7" t="s">
         <v>59</v>
@@ -1295,16 +1352,22 @@
         <v>58</v>
       </c>
       <c r="AC7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="s">
         <v>58</v>
       </c>
       <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1330,19 +1393,19 @@
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
         <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
         <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
         <v>33</v>
@@ -1369,28 +1432,34 @@
         <v>59</v>
       </c>
       <c r="X8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>74</v>
       </c>
       <c r="AA8" t="s">
         <v>59</v>
       </c>
       <c r="AB8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD8" t="s">
         <v>58</v>
       </c>
       <c r="AE8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1416,19 +1485,19 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
         <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
         <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
         <v>33</v>
@@ -1455,28 +1524,34 @@
         <v>59</v>
       </c>
       <c r="X9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>74</v>
       </c>
       <c r="AA9" t="s">
         <v>59</v>
       </c>
       <c r="AB9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD9" t="s">
         <v>58</v>
       </c>
       <c r="AE9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1502,22 +1577,22 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
         <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
         <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
         <v>33</v>
@@ -1544,74 +1619,32 @@
         <v>59</v>
       </c>
       <c r="X10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>74</v>
       </c>
       <c r="AA10" t="s">
         <v>59</v>
       </c>
       <c r="AB10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD10" t="s">
         <v>58</v>
       </c>
       <c r="AE10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
